--- a/Bug Reports/Export Letter Of Credit Bugs Report.xlsx
+++ b/Bug Reports/Export Letter Of Credit Bugs Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A274BA5-575F-4CDC-B364-37A3CDEACB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDC21FB-F99A-4A0D-B538-FC91B65EA6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,12 +324,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -339,15 +333,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -363,6 +348,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,7 +647,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -657,9 +657,9 @@
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="4" customWidth="1"/>
     <col min="9" max="9" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -667,52 +667,52 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -720,22 +720,22 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>45363</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>45363</v>
       </c>
     </row>
@@ -743,22 +743,22 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>45363</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>45363</v>
       </c>
     </row>

--- a/Bug Reports/Export Letter Of Credit Bugs Report.xlsx
+++ b/Bug Reports/Export Letter Of Credit Bugs Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDC21FB-F99A-4A0D-B538-FC91B65EA6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EC1B04-C92C-4751-AD13-15094A6E41E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <r>
       <t>System Name</t>
@@ -91,30 +91,146 @@
     <t>Export Letter Of Credit</t>
   </si>
   <si>
-    <t>Export Letter of Credit-&gt;creation mode-&gt;
-upload received MT700-&gt;fill all required fields-&gt;view voucher</t>
-  </si>
-  <si>
     <t>pending</t>
   </si>
   <si>
     <t>no field for receiver bank</t>
-  </si>
-  <si>
-    <t>receiver field to specify which
- bank will receive MT730 should be existed.</t>
   </si>
   <si>
     <t>Export Letter of Credit-&gt; MT730
  acknowledgment.</t>
   </si>
   <si>
+    <t>Export Letter of Credit event-&gt;A. Commission details section</t>
+  </si>
+  <si>
+    <t>no need for this section at all.</t>
+  </si>
+  <si>
+    <t>all fields in this section are disabled.</t>
+  </si>
+  <si>
+    <t>all commission fields are 
+disabled , and will be 0 commission always, 
+so what is benefit of this section??</t>
+  </si>
+  <si>
+    <t>Export Letter of Credit -&gt;creation mode- &gt; OUP Charges section.</t>
+  </si>
+  <si>
+    <t>there many charge needed</t>
+  </si>
+  <si>
+    <t>no OUP charges added.</t>
+  </si>
+  <si>
+    <t>we have provided you with
+ complete table of export LC 
+charges, so please add these
+ charges as per charges document.</t>
+  </si>
+  <si>
+    <t>Export Letter of Credit -&gt;creation mode- &gt; view voucher</t>
+  </si>
+  <si>
     <t>DR:correspondent bank liabilty account.
-CR:Our bank liabilty account(the receiver of incoming MT700).</t>
-  </si>
-  <si>
-    <t>DR:CUSTOMER LIABILITY ACCEPTANCE FIBC.
-CR:BANK'S LIABILITY FOR CUSTOMER'S ACC</t>
+CR:Beneficiary liability account.</t>
+  </si>
+  <si>
+    <t>DR: CUSTOMER LIABILITY .
+CR:  BANK'S LIABILITY .
+And this wrong</t>
+  </si>
+  <si>
+    <t>we need the ability to add the details of specific document more than one time.</t>
+  </si>
+  <si>
+    <t>we can add the details only one time for each document</t>
+  </si>
+  <si>
+    <t>we need the same scenario in import LC Bill Lodgment, each document could sent in two mails, so we want to reflect the details of each mail.</t>
+  </si>
+  <si>
+    <t>Export Bill Lodgement under LC -&gt; creation mode-&gt; document details section</t>
+  </si>
+  <si>
+    <t>reverse the liability in the same Bill currency</t>
+  </si>
+  <si>
+    <t>when reverse the libility, you are using the local Currency</t>
+  </si>
+  <si>
+    <t>52a, 53a, 58a are needless(to be removed).</t>
+  </si>
+  <si>
+    <t>52a, 53a, 58a are needless and existed.</t>
+  </si>
+  <si>
+    <t>From Event, 
+Usance Ref Date, Usance Days, NTP Days, Bill Due Date fileds should be disabled for sight type.</t>
+  </si>
+  <si>
+    <t>all these fields are enabled.</t>
+  </si>
+  <si>
+    <t>Export Bill Lodgement under LC -&gt; 
+creation mode-&gt;sight type</t>
+  </si>
+  <si>
+    <t>Export Bill Lodgement under LC -&gt;
+ creation mode</t>
+  </si>
+  <si>
+    <t>Export Bill Lodgement under LC -&gt; 
+creation mode-&gt; view voucher</t>
+  </si>
+  <si>
+    <t>MT730 acknowledgment-&gt; creation mode</t>
+  </si>
+  <si>
+    <t>currently are not correct.</t>
+  </si>
+  <si>
+    <t>the values of fields 20 &amp; 21 should be in vice
+ virsa(also reflected to the swift
+ messsage in reverse).</t>
+  </si>
+  <si>
+    <t>receiver field to specify which
+ bank will receive MT730 should be existed(and reflected to the swift message).</t>
+  </si>
+  <si>
+    <t>32D field is existed but not
+ reflected to swift message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32D field is not reflected 
+to the swift </t>
+  </si>
+  <si>
+    <t>field 25 Account identification should be optional</t>
+  </si>
+  <si>
+    <t>currently it is mandatory.</t>
+  </si>
+  <si>
+    <t>MT730 acknowledgment-&gt; creation mode-&gt;
+(25) Account Identification field.</t>
+  </si>
+  <si>
+    <t>missed events</t>
+  </si>
+  <si>
+    <t>some essential events mentioned in separte file(sent by mail in this date) are needed.</t>
+  </si>
+  <si>
+    <t>MT730 acknowledgment-&gt; creation mode -&gt;(57a) Account with Bank field</t>
+  </si>
+  <si>
+    <t>currently is mandatory</t>
+  </si>
+  <si>
+    <t>57a this field should be optional</t>
   </si>
 </sst>
 </file>
@@ -644,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -721,16 +837,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>19</v>
       </c>
       <c r="F4" s="4">
         <v>45363</v>
@@ -739,27 +855,286 @@
         <v>45363</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="45">
+    <row r="5" spans="1:9" ht="75">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>16</v>
-      </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4">
-        <v>45363</v>
+        <v>45376</v>
       </c>
       <c r="G5" s="4">
-        <v>45363</v>
+        <v>45376</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="105">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="4">
+        <v>45376</v>
+      </c>
+      <c r="G6" s="4">
+        <v>45376</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="60">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="4">
+        <v>45376</v>
+      </c>
+      <c r="G7" s="4">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4">
+        <v>45376</v>
+      </c>
+      <c r="G8" s="4">
+        <v>45376</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="4">
+        <v>45376</v>
+      </c>
+      <c r="G9" s="4">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="4">
+        <v>45376</v>
+      </c>
+      <c r="G10" s="4">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="75">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="4">
+        <v>45376</v>
+      </c>
+      <c r="G11" s="4">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="75">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="4">
+        <v>45377</v>
+      </c>
+      <c r="G12" s="4">
+        <v>45377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="4">
+        <v>45377</v>
+      </c>
+      <c r="G13" s="4">
+        <v>45377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="45">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="4">
+        <v>45377</v>
+      </c>
+      <c r="G14" s="4">
+        <v>45377</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="60">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="4">
+        <v>45378</v>
+      </c>
+      <c r="G15" s="4">
+        <v>45378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="4">
+        <v>45379</v>
+      </c>
+      <c r="G16" s="4">
+        <v>45379</v>
       </c>
     </row>
   </sheetData>

--- a/Bug Reports/Export Letter Of Credit Bugs Report.xlsx
+++ b/Bug Reports/Export Letter Of Credit Bugs Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EC1B04-C92C-4751-AD13-15094A6E41E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EAB78B-4FA1-4C84-89BB-AA1FC7788BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <r>
       <t>System Name</t>
@@ -231,6 +231,15 @@
   </si>
   <si>
     <t>57a this field should be optional</t>
+  </si>
+  <si>
+    <t>Export Letter of Credit -&gt;creation mode- &gt; LC details -&gt; (21)Sender's Reference No/LC field</t>
+  </si>
+  <si>
+    <t>the label of this field should be 'Our Reference'.</t>
+  </si>
+  <si>
+    <t>now you name it '(21)Sender's Reference No/LC '</t>
   </si>
 </sst>
 </file>
@@ -760,9 +769,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -1137,6 +1146,29 @@
         <v>45379</v>
       </c>
     </row>
+    <row r="17" spans="1:7" ht="45">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="4">
+        <v>45397</v>
+      </c>
+      <c r="G17" s="4">
+        <v>45397</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:D1"/>

--- a/Bug Reports/Export Letter Of Credit Bugs Report.xlsx
+++ b/Bug Reports/Export Letter Of Credit Bugs Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EAB78B-4FA1-4C84-89BB-AA1FC7788BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75804B78-F38B-4DFD-AF8E-3BF429E07FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
   <si>
     <r>
       <t>System Name</t>
@@ -110,26 +110,6 @@
     <t>all fields in this section are disabled.</t>
   </si>
   <si>
-    <t>all commission fields are 
-disabled , and will be 0 commission always, 
-so what is benefit of this section??</t>
-  </si>
-  <si>
-    <t>Export Letter of Credit -&gt;creation mode- &gt; OUP Charges section.</t>
-  </si>
-  <si>
-    <t>there many charge needed</t>
-  </si>
-  <si>
-    <t>no OUP charges added.</t>
-  </si>
-  <si>
-    <t>we have provided you with
- complete table of export LC 
-charges, so please add these
- charges as per charges document.</t>
-  </si>
-  <si>
     <t>Export Letter of Credit -&gt;creation mode- &gt; view voucher</t>
   </si>
   <si>
@@ -148,9 +128,6 @@
     <t>we can add the details only one time for each document</t>
   </si>
   <si>
-    <t>we need the same scenario in import LC Bill Lodgment, each document could sent in two mails, so we want to reflect the details of each mail.</t>
-  </si>
-  <si>
     <t>Export Bill Lodgement under LC -&gt; creation mode-&gt; document details section</t>
   </si>
   <si>
@@ -240,6 +217,65 @@
   </si>
   <si>
     <t>now you name it '(21)Sender's Reference No/LC '</t>
+  </si>
+  <si>
+    <t>the label of field (32a) to be 'Principal Amount Paid/Accepted/Negotiated'</t>
+  </si>
+  <si>
+    <t>Export Bill Lodgement under LC -&gt; creation mode-&gt; 
+(32a) Total Charge Amt field.</t>
+  </si>
+  <si>
+    <t>Export Letter of Credit -&gt;creation mode.</t>
+  </si>
+  <si>
+    <t>20 is our ref and 21 is our correspondent ref.</t>
+  </si>
+  <si>
+    <t>as per your implementation are in revese.</t>
+  </si>
+  <si>
+    <r>
+      <t>currently is 'Total Charge Amt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>are disabled now, we have to show it to the bank team first to make dicision if passed or not.</t>
+  </si>
+  <si>
+    <r>
+      <t>we need the same scenario in import LC Bill 
+Lodgment, each document could sent in two mails, so we want to reflect the details of each mail.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(we can not add the details of sepcific document twice)</t>
+    </r>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>NTP Days is still editable.</t>
   </si>
 </sst>
 </file>
@@ -249,7 +285,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,8 +325,22 @@
       <name val="MS Gothic"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,6 +383,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -444,7 +506,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -473,6 +535,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -769,34 +833,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="73.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="4" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" style="4" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" customWidth="1"/>
+    <col min="9" max="9" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
     </row>
@@ -804,11 +868,11 @@
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
@@ -841,18 +905,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="75">
+    <row r="4" spans="1:9" ht="30">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>13</v>
+      <c r="C4" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -861,17 +925,20 @@
         <v>45363</v>
       </c>
       <c r="G4" s="4">
-        <v>45363</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="75">
+        <v>45456</v>
+      </c>
+      <c r="H4" s="4">
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
@@ -887,286 +954,327 @@
         <v>45376</v>
       </c>
       <c r="I5" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="105">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
       </c>
       <c r="F6" s="4">
         <v>45376</v>
       </c>
       <c r="G6" s="4">
-        <v>45376</v>
-      </c>
-      <c r="I6" s="12" t="s">
+        <v>45455</v>
+      </c>
+      <c r="H6" s="4">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="75">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="60">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="F7" s="4">
         <v>45376</v>
       </c>
       <c r="G7" s="4">
-        <v>45376</v>
+        <v>45456</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30">
       <c r="A8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>13</v>
+        <v>33</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="4">
         <v>45376</v>
       </c>
       <c r="G8" s="4">
-        <v>45376</v>
-      </c>
-      <c r="I8" t="s">
-        <v>29</v>
+        <v>45456</v>
+      </c>
+      <c r="H8" s="4">
+        <v>45456</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30">
       <c r="A9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>13</v>
+        <v>32</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F9" s="4">
         <v>45376</v>
       </c>
       <c r="G9" s="4">
-        <v>45376</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30">
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="45">
       <c r="A10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F10" s="4">
         <v>45376</v>
       </c>
       <c r="G10" s="4">
-        <v>45376</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="75">
+        <v>45456</v>
+      </c>
+      <c r="I10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="45">
       <c r="A11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
       <c r="F11" s="4">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="G11" s="4">
-        <v>45376</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="75">
+        <v>45377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30">
       <c r="A12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>13</v>
+        <v>34</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="F12" s="4">
         <v>45377</v>
       </c>
       <c r="G12" s="4">
-        <v>45377</v>
+        <v>45456</v>
+      </c>
+      <c r="H12" s="4">
+        <v>45456</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30">
       <c r="A13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>45</v>
+      <c r="E13" t="s">
+        <v>41</v>
       </c>
       <c r="F13" s="4">
         <v>45377</v>
       </c>
       <c r="G13" s="4">
-        <v>45377</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="45">
+        <v>45454</v>
+      </c>
+      <c r="H13" s="4">
+        <v>45454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30">
       <c r="A14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="4">
+        <v>45378</v>
+      </c>
+      <c r="G14" s="4">
+        <v>45456</v>
+      </c>
+      <c r="H14" s="4">
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="B15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
         <v>46</v>
       </c>
-      <c r="E14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="4">
-        <v>45377</v>
-      </c>
-      <c r="G14" s="4">
-        <v>45377</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="60">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>50</v>
-      </c>
       <c r="F15" s="4">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="G15" s="4">
-        <v>45378</v>
+        <v>45454</v>
+      </c>
+      <c r="H15" s="4">
+        <v>45454</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30">
       <c r="A16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="4">
+        <v>45397</v>
+      </c>
+      <c r="G16" s="4">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="F16" s="4">
-        <v>45379</v>
-      </c>
-      <c r="G16" s="4">
-        <v>45379</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="45">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
         <v>56</v>
       </c>
       <c r="F17" s="4">
-        <v>45397</v>
+        <v>45452</v>
       </c>
       <c r="G17" s="4">
-        <v>45397</v>
+        <v>45452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="4">
+        <v>45452</v>
+      </c>
+      <c r="G18" s="4">
+        <v>45452</v>
       </c>
     </row>
   </sheetData>
@@ -1175,5 +1283,6 @@
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>